--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ngf-Sort1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ngf-Sort1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.768772561858271</v>
+        <v>0.9523829999999999</v>
       </c>
       <c r="H2">
-        <v>0.768772561858271</v>
+        <v>2.857149</v>
       </c>
       <c r="I2">
-        <v>0.03913159579170226</v>
+        <v>0.04618630532204829</v>
       </c>
       <c r="J2">
-        <v>0.03913159579170226</v>
+        <v>0.06493209518353291</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.858820278469918</v>
+        <v>0.9703876666666668</v>
       </c>
       <c r="N2">
-        <v>0.858820278469918</v>
+        <v>2.911163</v>
       </c>
       <c r="O2">
-        <v>0.03583464644574196</v>
+        <v>0.03945299285965207</v>
       </c>
       <c r="P2">
-        <v>0.03583464644574196</v>
+        <v>0.04754668824173519</v>
       </c>
       <c r="Q2">
-        <v>0.6602374656551526</v>
+        <v>0.924180717143</v>
       </c>
       <c r="R2">
-        <v>0.6602374656551526</v>
+        <v>8.317626454287</v>
       </c>
       <c r="S2">
-        <v>0.001402266900053334</v>
+        <v>0.001822187974084482</v>
       </c>
       <c r="T2">
-        <v>0.001402266900053334</v>
+        <v>0.003087306086574114</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.768772561858271</v>
+        <v>0.9523829999999999</v>
       </c>
       <c r="H3">
-        <v>0.768772561858271</v>
+        <v>2.857149</v>
       </c>
       <c r="I3">
-        <v>0.03913159579170226</v>
+        <v>0.04618630532204829</v>
       </c>
       <c r="J3">
-        <v>0.03913159579170226</v>
+        <v>0.06493209518353291</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.898684428323798</v>
+        <v>1.041192666666667</v>
       </c>
       <c r="N3">
-        <v>0.898684428323798</v>
+        <v>3.123578</v>
       </c>
       <c r="O3">
-        <v>0.0374979952879688</v>
+        <v>0.04233170747586662</v>
       </c>
       <c r="P3">
-        <v>0.0374979952879688</v>
+        <v>0.05101596487889641</v>
       </c>
       <c r="Q3">
-        <v>0.6908839302646219</v>
+        <v>0.9916141954579999</v>
       </c>
       <c r="R3">
-        <v>0.6908839302646219</v>
+        <v>8.924527759122</v>
       </c>
       <c r="S3">
-        <v>0.001467356394607951</v>
+        <v>0.00195514516628401</v>
       </c>
       <c r="T3">
-        <v>0.001467356394607951</v>
+        <v>0.003312573487396274</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.768772561858271</v>
+        <v>0.9523829999999999</v>
       </c>
       <c r="H4">
-        <v>0.768772561858271</v>
+        <v>2.857149</v>
       </c>
       <c r="I4">
-        <v>0.03913159579170226</v>
+        <v>0.04618630532204829</v>
       </c>
       <c r="J4">
-        <v>0.03913159579170226</v>
+        <v>0.06493209518353291</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.01333326596833</v>
+        <v>5.170211333333333</v>
       </c>
       <c r="N4">
-        <v>5.01333326596833</v>
+        <v>15.510634</v>
       </c>
       <c r="O4">
-        <v>0.209183492290983</v>
+        <v>0.2102049704707969</v>
       </c>
       <c r="P4">
-        <v>0.209183492290983</v>
+        <v>0.2533280614069559</v>
       </c>
       <c r="Q4">
-        <v>3.854113058327766</v>
+        <v>4.924021380274</v>
       </c>
       <c r="R4">
-        <v>3.854113058327766</v>
+        <v>44.316192422466</v>
       </c>
       <c r="S4">
-        <v>0.008185683866627413</v>
+        <v>0.009708590946376373</v>
       </c>
       <c r="T4">
-        <v>0.008185683866627413</v>
+        <v>0.01644912179593633</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.768772561858271</v>
+        <v>0.9523829999999999</v>
       </c>
       <c r="H5">
-        <v>0.768772561858271</v>
+        <v>2.857149</v>
       </c>
       <c r="I5">
-        <v>0.03913159579170226</v>
+        <v>0.04618630532204829</v>
       </c>
       <c r="J5">
-        <v>0.03913159579170226</v>
+        <v>0.06493209518353291</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.6353900043942</v>
+        <v>4.853575333333334</v>
       </c>
       <c r="N5">
-        <v>4.6353900043942</v>
+        <v>14.560726</v>
       </c>
       <c r="O5">
-        <v>0.1934136467312243</v>
+        <v>0.1973315197085667</v>
       </c>
       <c r="P5">
-        <v>0.1934136467312243</v>
+        <v>0.2378136503161547</v>
       </c>
       <c r="Q5">
-        <v>3.563560648890351</v>
+        <v>4.622462636686</v>
       </c>
       <c r="R5">
-        <v>3.563560648890351</v>
+        <v>41.602163730174</v>
       </c>
       <c r="S5">
-        <v>0.007568584644485365</v>
+        <v>0.009114013818923654</v>
       </c>
       <c r="T5">
-        <v>0.007568584644485365</v>
+        <v>0.01544173857827197</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.768772561858271</v>
+        <v>0.9523829999999999</v>
       </c>
       <c r="H6">
-        <v>0.768772561858271</v>
+        <v>2.857149</v>
       </c>
       <c r="I6">
-        <v>0.03913159579170226</v>
+        <v>0.04618630532204829</v>
       </c>
       <c r="J6">
-        <v>0.03913159579170226</v>
+        <v>0.06493209518353291</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.559971320227</v>
+        <v>12.56068</v>
       </c>
       <c r="N6">
-        <v>12.559971320227</v>
+        <v>25.12136</v>
       </c>
       <c r="O6">
-        <v>0.5240702192440819</v>
+        <v>0.5106788094851177</v>
       </c>
       <c r="P6">
-        <v>0.5240702192440819</v>
+        <v>0.4102956351562577</v>
       </c>
       <c r="Q6">
-        <v>9.655761328717322</v>
+        <v>11.96257810044</v>
       </c>
       <c r="R6">
-        <v>9.655761328717322</v>
+        <v>71.77546860263999</v>
       </c>
       <c r="S6">
-        <v>0.0205077039859282</v>
+        <v>0.02358636741637977</v>
       </c>
       <c r="T6">
-        <v>0.0205077039859282</v>
+        <v>0.02664135523535422</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.64870635951111</v>
+        <v>1.808798</v>
       </c>
       <c r="H7">
-        <v>1.64870635951111</v>
+        <v>5.426394</v>
       </c>
       <c r="I7">
-        <v>0.0839214535488219</v>
+        <v>0.08771859293363103</v>
       </c>
       <c r="J7">
-        <v>0.0839214535488219</v>
+        <v>0.1233212309583266</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.858820278469918</v>
+        <v>0.9703876666666668</v>
       </c>
       <c r="N7">
-        <v>0.858820278469918</v>
+        <v>2.911163</v>
       </c>
       <c r="O7">
-        <v>0.03583464644574196</v>
+        <v>0.03945299285965207</v>
       </c>
       <c r="P7">
-        <v>0.03583464644574196</v>
+        <v>0.04754668824173519</v>
       </c>
       <c r="Q7">
-        <v>1.415942454790456</v>
+        <v>1.755235270691334</v>
       </c>
       <c r="R7">
-        <v>1.415942454790456</v>
+        <v>15.797117436222</v>
       </c>
       <c r="S7">
-        <v>0.00300729561713479</v>
+        <v>0.003460761020669272</v>
       </c>
       <c r="T7">
-        <v>0.00300729561713479</v>
+        <v>0.005863516121962577</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.64870635951111</v>
+        <v>1.808798</v>
       </c>
       <c r="H8">
-        <v>1.64870635951111</v>
+        <v>5.426394</v>
       </c>
       <c r="I8">
-        <v>0.0839214535488219</v>
+        <v>0.08771859293363103</v>
       </c>
       <c r="J8">
-        <v>0.0839214535488219</v>
+        <v>0.1233212309583266</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.898684428323798</v>
+        <v>1.041192666666667</v>
       </c>
       <c r="N8">
-        <v>0.898684428323798</v>
+        <v>3.123578</v>
       </c>
       <c r="O8">
-        <v>0.0374979952879688</v>
+        <v>0.04233170747586662</v>
       </c>
       <c r="P8">
-        <v>0.0374979952879688</v>
+        <v>0.05101596487889641</v>
       </c>
       <c r="Q8">
-        <v>1.481666732171052</v>
+        <v>1.883307213081334</v>
       </c>
       <c r="R8">
-        <v>1.481666732171052</v>
+        <v>16.949764917732</v>
       </c>
       <c r="S8">
-        <v>0.003146886269733216</v>
+        <v>0.00371327781626109</v>
       </c>
       <c r="T8">
-        <v>0.003146886269733216</v>
+        <v>0.006291351587392263</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.64870635951111</v>
+        <v>1.808798</v>
       </c>
       <c r="H9">
-        <v>1.64870635951111</v>
+        <v>5.426394</v>
       </c>
       <c r="I9">
-        <v>0.0839214535488219</v>
+        <v>0.08771859293363103</v>
       </c>
       <c r="J9">
-        <v>0.0839214535488219</v>
+        <v>0.1233212309583266</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.01333326596833</v>
+        <v>5.170211333333333</v>
       </c>
       <c r="N9">
-        <v>5.01333326596833</v>
+        <v>15.510634</v>
       </c>
       <c r="O9">
-        <v>0.209183492290983</v>
+        <v>0.2102049704707969</v>
       </c>
       <c r="P9">
-        <v>0.209183492290983</v>
+        <v>0.2533280614069559</v>
       </c>
       <c r="Q9">
-        <v>8.265514437950589</v>
+        <v>9.351867919310667</v>
       </c>
       <c r="R9">
-        <v>8.265514437950589</v>
+        <v>84.166811273796</v>
       </c>
       <c r="S9">
-        <v>0.01755498273147808</v>
+        <v>0.01843888423735377</v>
       </c>
       <c r="T9">
-        <v>0.01755498273147808</v>
+        <v>0.03124072836899235</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.64870635951111</v>
+        <v>1.808798</v>
       </c>
       <c r="H10">
-        <v>1.64870635951111</v>
+        <v>5.426394</v>
       </c>
       <c r="I10">
-        <v>0.0839214535488219</v>
+        <v>0.08771859293363103</v>
       </c>
       <c r="J10">
-        <v>0.0839214535488219</v>
+        <v>0.1233212309583266</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.6353900043942</v>
+        <v>4.853575333333334</v>
       </c>
       <c r="N10">
-        <v>4.6353900043942</v>
+        <v>14.560726</v>
       </c>
       <c r="O10">
-        <v>0.1934136467312243</v>
+        <v>0.1973315197085667</v>
       </c>
       <c r="P10">
-        <v>0.1934136467312243</v>
+        <v>0.2378136503161547</v>
       </c>
       <c r="Q10">
-        <v>7.642396979058949</v>
+        <v>8.779137355782668</v>
       </c>
       <c r="R10">
-        <v>7.642396979058949</v>
+        <v>79.01223620204401</v>
       </c>
       <c r="S10">
-        <v>0.01623155436986269</v>
+        <v>0.01730964325029056</v>
       </c>
       <c r="T10">
-        <v>0.01623155436986269</v>
+        <v>0.02932747209568123</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.64870635951111</v>
+        <v>1.808798</v>
       </c>
       <c r="H11">
-        <v>1.64870635951111</v>
+        <v>5.426394</v>
       </c>
       <c r="I11">
-        <v>0.0839214535488219</v>
+        <v>0.08771859293363103</v>
       </c>
       <c r="J11">
-        <v>0.0839214535488219</v>
+        <v>0.1233212309583266</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.559971320227</v>
+        <v>12.56068</v>
       </c>
       <c r="N11">
-        <v>12.559971320227</v>
+        <v>25.12136</v>
       </c>
       <c r="O11">
-        <v>0.5240702192440819</v>
+        <v>0.5106788094851177</v>
       </c>
       <c r="P11">
-        <v>0.5240702192440819</v>
+        <v>0.4102956351562577</v>
       </c>
       <c r="Q11">
-        <v>20.70770459093541</v>
+        <v>22.71973286264</v>
       </c>
       <c r="R11">
-        <v>20.70770459093541</v>
+        <v>136.31839717584</v>
       </c>
       <c r="S11">
-        <v>0.04398073456061313</v>
+        <v>0.04479602660905635</v>
       </c>
       <c r="T11">
-        <v>0.04398073456061313</v>
+        <v>0.05059816278429816</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.2283480965333</v>
+        <v>17.859282</v>
       </c>
       <c r="H12">
-        <v>17.2283480965333</v>
+        <v>35.718564</v>
       </c>
       <c r="I12">
-        <v>0.8769469506594759</v>
+        <v>0.8660951017443207</v>
       </c>
       <c r="J12">
-        <v>0.8769469506594759</v>
+        <v>0.8117466738581405</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.858820278469918</v>
+        <v>0.9703876666666668</v>
       </c>
       <c r="N12">
-        <v>0.858820278469918</v>
+        <v>2.911163</v>
       </c>
       <c r="O12">
-        <v>0.03583464644574196</v>
+        <v>0.03945299285965207</v>
       </c>
       <c r="P12">
-        <v>0.03583464644574196</v>
+        <v>0.04754668824173519</v>
       </c>
       <c r="Q12">
-        <v>14.79605470984141</v>
+        <v>17.330426988322</v>
       </c>
       <c r="R12">
-        <v>14.79605470984141</v>
+        <v>103.982561929932</v>
       </c>
       <c r="S12">
-        <v>0.03142508392855384</v>
+        <v>0.03417004386489832</v>
       </c>
       <c r="T12">
-        <v>0.03142508392855384</v>
+        <v>0.0385958660331985</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.2283480965333</v>
+        <v>17.859282</v>
       </c>
       <c r="H13">
-        <v>17.2283480965333</v>
+        <v>35.718564</v>
       </c>
       <c r="I13">
-        <v>0.8769469506594759</v>
+        <v>0.8660951017443207</v>
       </c>
       <c r="J13">
-        <v>0.8769469506594759</v>
+        <v>0.8117466738581405</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.898684428323798</v>
+        <v>1.041192666666667</v>
       </c>
       <c r="N13">
-        <v>0.898684428323798</v>
+        <v>3.123578</v>
       </c>
       <c r="O13">
-        <v>0.0374979952879688</v>
+        <v>0.04233170747586662</v>
       </c>
       <c r="P13">
-        <v>0.0374979952879688</v>
+        <v>0.05101596487889641</v>
       </c>
       <c r="Q13">
-        <v>15.48284816009642</v>
+        <v>18.594953450332</v>
       </c>
       <c r="R13">
-        <v>15.48284816009642</v>
+        <v>111.569720701992</v>
       </c>
       <c r="S13">
-        <v>0.03288375262362764</v>
+        <v>0.03666328449332152</v>
       </c>
       <c r="T13">
-        <v>0.03288375262362764</v>
+        <v>0.04141203980410788</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.2283480965333</v>
+        <v>17.859282</v>
       </c>
       <c r="H14">
-        <v>17.2283480965333</v>
+        <v>35.718564</v>
       </c>
       <c r="I14">
-        <v>0.8769469506594759</v>
+        <v>0.8660951017443207</v>
       </c>
       <c r="J14">
-        <v>0.8769469506594759</v>
+        <v>0.8117466738581405</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.01333326596833</v>
+        <v>5.170211333333333</v>
       </c>
       <c r="N14">
-        <v>5.01333326596833</v>
+        <v>15.510634</v>
       </c>
       <c r="O14">
-        <v>0.209183492290983</v>
+        <v>0.2102049704707969</v>
       </c>
       <c r="P14">
-        <v>0.209183492290983</v>
+        <v>0.2533280614069559</v>
       </c>
       <c r="Q14">
-        <v>86.37145063003256</v>
+        <v>92.336262201596</v>
       </c>
       <c r="R14">
-        <v>86.37145063003256</v>
+        <v>554.017573209576</v>
       </c>
       <c r="S14">
-        <v>0.1834428256928775</v>
+        <v>0.1820574952870668</v>
       </c>
       <c r="T14">
-        <v>0.1834428256928775</v>
+        <v>0.2056382112420272</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.2283480965333</v>
+        <v>17.859282</v>
       </c>
       <c r="H15">
-        <v>17.2283480965333</v>
+        <v>35.718564</v>
       </c>
       <c r="I15">
-        <v>0.8769469506594759</v>
+        <v>0.8660951017443207</v>
       </c>
       <c r="J15">
-        <v>0.8769469506594759</v>
+        <v>0.8117466738581405</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.6353900043942</v>
+        <v>4.853575333333334</v>
       </c>
       <c r="N15">
-        <v>4.6353900043942</v>
+        <v>14.560726</v>
       </c>
       <c r="O15">
-        <v>0.1934136467312243</v>
+        <v>0.1973315197085667</v>
       </c>
       <c r="P15">
-        <v>0.1934136467312243</v>
+        <v>0.2378136503161547</v>
       </c>
       <c r="Q15">
-        <v>79.86011255889429</v>
+        <v>86.681370586244</v>
       </c>
       <c r="R15">
-        <v>79.86011255889429</v>
+        <v>520.088223517464</v>
       </c>
       <c r="S15">
-        <v>0.1696135077168763</v>
+        <v>0.1709078626393525</v>
       </c>
       <c r="T15">
-        <v>0.1696135077168763</v>
+        <v>0.1930444396422015</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.2283480965333</v>
+        <v>17.859282</v>
       </c>
       <c r="H16">
-        <v>17.2283480965333</v>
+        <v>35.718564</v>
       </c>
       <c r="I16">
-        <v>0.8769469506594759</v>
+        <v>0.8660951017443207</v>
       </c>
       <c r="J16">
-        <v>0.8769469506594759</v>
+        <v>0.8117466738581405</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.559971320227</v>
+        <v>12.56068</v>
       </c>
       <c r="N16">
-        <v>12.559971320227</v>
+        <v>25.12136</v>
       </c>
       <c r="O16">
-        <v>0.5240702192440819</v>
+        <v>0.5106788094851177</v>
       </c>
       <c r="P16">
-        <v>0.5240702192440819</v>
+        <v>0.4102956351562577</v>
       </c>
       <c r="Q16">
-        <v>216.3875579873456</v>
+        <v>224.32472623176</v>
       </c>
       <c r="R16">
-        <v>216.3875579873456</v>
+        <v>897.29890492704</v>
       </c>
       <c r="S16">
-        <v>0.4595817806975406</v>
+        <v>0.4422964154596816</v>
       </c>
       <c r="T16">
-        <v>0.4595817806975406</v>
+        <v>0.3330561171366053</v>
       </c>
     </row>
   </sheetData>
